--- a/calculation/calculation资料.xlsx
+++ b/calculation/calculation资料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>键盘位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +25,6 @@
   </si>
   <si>
     <t>图片和文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,6 +53,14 @@
   </si>
   <si>
     <t>点下一题时生成：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -177,13 +181,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +355,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -237,6 +419,14 @@
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{79176FB0-B7F2-11CE-97EF-00AA006D2776}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,25 +717,33 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
+    <row r="1" spans="2:15" ht="14.25" thickBot="1">
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+    </row>
     <row r="2" spans="2:15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
@@ -554,14 +752,16 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
@@ -570,18 +770,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
@@ -590,14 +790,14 @@
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
@@ -606,14 +806,14 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
@@ -622,14 +822,14 @@
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
@@ -687,7 +887,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1102,27 +1302,27 @@
     </row>
     <row r="41" spans="2:15">
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:15">
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="C44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:15">
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="46" spans="2:15">
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1134,6 +1334,8 @@
     <control shapeId="1031" r:id="rId3" name="SpinButton1"/>
     <control shapeId="1027" r:id="rId4" name="CheckBox2"/>
     <control shapeId="1026" r:id="rId5" name="CheckBox1"/>
+    <control shapeId="1033" r:id="rId6" name="TextBox2"/>
+    <control shapeId="1034" r:id="rId7" name="SpinButton2"/>
   </controls>
 </worksheet>
 </file>